--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raffi\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raffi\Documents\GitHub\Tugasbesar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7006459C-CC21-4B68-85A0-5A73C7D6DEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3C844E-48CC-447F-A8C6-07D997FB6336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22692" windowHeight="12360" xr2:uid="{BE3ECB40-A85F-4D1D-9BB0-EF812BEC4A5C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BE3ECB40-A85F-4D1D-9BB0-EF812BEC4A5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>Task</t>
   </si>
@@ -92,6 +92,15 @@
   </si>
   <si>
     <t>10-Des-2021</t>
+  </si>
+  <si>
+    <t>debug</t>
+  </si>
+  <si>
+    <t>solusi</t>
+  </si>
+  <si>
+    <t>lama waktu handle</t>
   </si>
 </sst>
 </file>
@@ -127,9 +136,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E86C45E6-C388-4D4C-B338-F589943ECF5C}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,7 +468,7 @@
     <col min="5" max="5" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -477,8 +487,17 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -488,6 +507,9 @@
       <c r="C2" s="1">
         <v>44490</v>
       </c>
+      <c r="D2" s="1">
+        <v>44497</v>
+      </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
@@ -495,7 +517,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -505,6 +527,9 @@
       <c r="C3" s="1">
         <v>44497</v>
       </c>
+      <c r="D3" s="1">
+        <v>44498</v>
+      </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
@@ -512,7 +537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -520,7 +545,10 @@
         <v>44498</v>
       </c>
       <c r="C4" s="1">
-        <v>44475</v>
+        <v>44506</v>
+      </c>
+      <c r="D4" s="2">
+        <v>44510</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -529,7 +557,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -537,7 +565,10 @@
         <v>44507</v>
       </c>
       <c r="C5" s="1">
-        <v>44482</v>
+        <v>44513</v>
+      </c>
+      <c r="D5" s="2">
+        <v>44507</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -546,7 +577,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -554,7 +585,7 @@
         <v>44514</v>
       </c>
       <c r="C6" s="1">
-        <v>44489</v>
+        <v>44520</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -563,7 +594,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -571,7 +602,7 @@
         <v>44521</v>
       </c>
       <c r="C7" s="1">
-        <v>44496</v>
+        <v>44527</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -580,7 +611,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -597,7 +628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>

--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raffi\Documents\GitHub\Tugasbesar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3C844E-48CC-447F-A8C6-07D997FB6336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68497069-7E6E-4027-84FA-B9E3DB0A4153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BE3ECB40-A85F-4D1D-9BB0-EF812BEC4A5C}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{BE3ECB40-A85F-4D1D-9BB0-EF812BEC4A5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>Task</t>
   </si>
@@ -82,18 +82,9 @@
     <t>Target Selesai</t>
   </si>
   <si>
-    <t>2-Des-2021</t>
-  </si>
-  <si>
     <t>Backend Web</t>
   </si>
   <si>
-    <t>3-Des-2021</t>
-  </si>
-  <si>
-    <t>10-Des-2021</t>
-  </si>
-  <si>
     <t>debug</t>
   </si>
   <si>
@@ -101,6 +92,9 @@
   </si>
   <si>
     <t>lama waktu handle</t>
+  </si>
+  <si>
+    <t>Finised</t>
   </si>
 </sst>
 </file>
@@ -136,10 +130,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,7 +450,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,13 +481,13 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -502,19 +495,19 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>44484</v>
+        <v>44515</v>
       </c>
       <c r="C2" s="1">
-        <v>44490</v>
+        <v>44516</v>
       </c>
       <c r="D2" s="1">
-        <v>44497</v>
+        <v>44516</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -522,19 +515,19 @@
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>44491</v>
+        <v>44515</v>
       </c>
       <c r="C3" s="1">
-        <v>44497</v>
+        <v>44516</v>
       </c>
       <c r="D3" s="1">
-        <v>44498</v>
+        <v>44516</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -542,19 +535,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="1">
-        <v>44498</v>
+        <v>44520</v>
       </c>
       <c r="C4" s="1">
-        <v>44506</v>
-      </c>
-      <c r="D4" s="2">
-        <v>44510</v>
+        <v>44522</v>
+      </c>
+      <c r="D4" s="1">
+        <v>44522</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -562,19 +555,19 @@
         <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>44507</v>
+        <v>44515</v>
       </c>
       <c r="C5" s="1">
-        <v>44513</v>
-      </c>
-      <c r="D5" s="2">
-        <v>44507</v>
+        <v>44516</v>
+      </c>
+      <c r="D5" s="1">
+        <v>44516</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -582,16 +575,19 @@
         <v>9</v>
       </c>
       <c r="B6" s="1">
-        <v>44514</v>
+        <v>44515</v>
       </c>
       <c r="C6" s="1">
-        <v>44520</v>
+        <v>44516</v>
+      </c>
+      <c r="D6" s="1">
+        <v>44516</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -599,10 +595,10 @@
         <v>10</v>
       </c>
       <c r="B7" s="1">
-        <v>44521</v>
+        <v>44537</v>
       </c>
       <c r="C7" s="1">
-        <v>44527</v>
+        <v>44544</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -613,13 +609,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1">
-        <v>44528</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
+        <v>44538</v>
+      </c>
+      <c r="C8" s="1">
+        <v>44545</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -632,11 +628,11 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
+      <c r="B9" s="1">
+        <v>44539</v>
+      </c>
+      <c r="C9" s="1">
+        <v>44546</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
